--- a/biology/Botanique/Viola_abyssinica/Viola_abyssinica.xlsx
+++ b/biology/Botanique/Viola_abyssinica/Viola_abyssinica.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Viola abyssinica Steud. ex Oliv. est une espèce de plantes herbacées de la famille des Violaceae. Elle pousse en Afrique tropicale.
 </t>
@@ -511,11 +523,13 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C’est une herbe grimpante vivace dont les grandes tiges fines, le plus souvent sans branches, forme des racines aux nœuds. Les feuilles sont alternées, cordiformes et mesurent de 1 à 2 cm de long et de large. Les pétioles sont effilés et peuvent atteindre 2 cm de longueur. Les stipules sont foliacées et lacérées. Les fleurs auxiliaires sont solitaires et persistantes. Les pédicelles sont fins et mesurent jusqu’à 5 cm de long. Les sépales sont plus ou moins égaux, étroitement ovales à acuminés et peuvent atteindre 5 mm de longueur. La corolle est formée de deux paires de pétales : les supérieurs sont blanchâtres, obovales, de 5 à 10 mm de long ; les antérieurs, veinés, sont plus courts et d’une couleur allant du bleu pâle au bleu foncé ou même violet[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C’est une herbe grimpante vivace dont les grandes tiges fines, le plus souvent sans branches, forme des racines aux nœuds. Les feuilles sont alternées, cordiformes et mesurent de 1 à 2 cm de long et de large. Les pétioles sont effilés et peuvent atteindre 2 cm de longueur. Les stipules sont foliacées et lacérées. Les fleurs auxiliaires sont solitaires et persistantes. Les pédicelles sont fins et mesurent jusqu’à 5 cm de long. Les sépales sont plus ou moins égaux, étroitement ovales à acuminés et peuvent atteindre 5 mm de longueur. La corolle est formée de deux paires de pétales : les supérieurs sont blanchâtres, obovales, de 5 à 10 mm de long ; les antérieurs, veinés, sont plus courts et d’une couleur allant du bleu pâle au bleu foncé ou même violet.
 Sa période de floraison se situe entre octobre et mars.
-Elle se rencontre en bordure de forêts et dans les prairies humides, souvent rampante au-dessus de la végétation environnante. Elle est présente dans les montagnes, à une altitude supérieure à 1 200 mètres, de l’Éthiopie à l’Afrique du Sud ainsi qu’au Niger, Cameroun et Madagascar[2].
+Elle se rencontre en bordure de forêts et dans les prairies humides, souvent rampante au-dessus de la végétation environnante. Elle est présente dans les montagnes, à une altitude supérieure à 1 200 mètres, de l’Éthiopie à l’Afrique du Sud ainsi qu’au Niger, Cameroun et Madagascar.
 </t>
         </is>
       </c>
@@ -544,11 +558,13 @@
           <t>Utilisations</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">La plante entière sert comme antidote ou vomitif.
 Les feuilles séchées et réduites en poudre de Maesa lanceolata +  Viola abyssinica + Dissotis brazzae + beurre ou de l'huile de ricin sont utilisées en massage local contre les fractures.
-Les feuilles de Viola abyssinica sont broyées pour en extraire le jus et ensuite appliquées pour adoucir le cuir dur[3].
+Les feuilles de Viola abyssinica sont broyées pour en extraire le jus et ensuite appliquées pour adoucir le cuir dur.
 </t>
         </is>
       </c>
